--- a/agenciasdeviajebarranquilla.xlsx
+++ b/agenciasdeviajebarranquilla.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="1092">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3085" uniqueCount="1092">
   <si>
     <t>Nombre</t>
   </si>
@@ -3668,7 +3668,7 @@
   <dimension ref="A1:L281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,8 +3719,8 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
+      <c r="B2">
+        <v>3104819492</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -3754,8 +3754,8 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
-        <v>24</v>
+      <c r="B3">
+        <v>3104819492</v>
       </c>
       <c r="C3" t="s">
         <v>25</v>
@@ -3789,8 +3789,8 @@
       <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
-        <v>32</v>
+      <c r="B4">
+        <v>3104819492</v>
       </c>
       <c r="C4" t="s">
         <v>33</v>
@@ -3824,8 +3824,8 @@
       <c r="A5" t="s">
         <v>39</v>
       </c>
-      <c r="B5" t="s">
-        <v>40</v>
+      <c r="B5">
+        <v>3104819492</v>
       </c>
       <c r="C5" t="s">
         <v>41</v>
@@ -3859,8 +3859,8 @@
       <c r="A6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
+      <c r="B6">
+        <v>3104819492</v>
       </c>
       <c r="C6" t="s">
         <v>48</v>
@@ -3894,8 +3894,8 @@
       <c r="A7" t="s">
         <v>54</v>
       </c>
-      <c r="B7" t="s">
-        <v>55</v>
+      <c r="B7">
+        <v>3104819492</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
@@ -3929,8 +3929,8 @@
       <c r="A8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" t="s">
-        <v>63</v>
+      <c r="B8">
+        <v>3104819492</v>
       </c>
       <c r="C8" t="s">
         <v>64</v>

--- a/agenciasdeviajebarranquilla.xlsx
+++ b/agenciasdeviajebarranquilla.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t>Nombre</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>ricardo silgado</t>
+  </si>
+  <si>
+    <t>edwin camacho</t>
+  </si>
+  <si>
+    <t>300 6120261</t>
   </si>
 </sst>
 </file>
@@ -518,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -708,6 +714,14 @@
         <v>20</v>
       </c>
     </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/agenciasdeviajebarranquilla.xlsx
+++ b/agenciasdeviajebarranquilla.xlsx
@@ -162,7 +162,7 @@
     <t>edwin camacho</t>
   </si>
   <si>
-    <t>300 6120261</t>
+    <t>320 2588237</t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/agenciasdeviajebarranquilla.xlsx
+++ b/agenciasdeviajebarranquilla.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo\Downloads\CRUDListApp-main\when_piensas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Danilo\when_piensas\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Nombre</t>
   </si>
@@ -144,9 +144,6 @@
     <t>-74.816908</t>
   </si>
   <si>
-    <t>315 6072530</t>
-  </si>
-  <si>
     <t>Alejandro silgado</t>
   </si>
   <si>
@@ -160,9 +157,6 @@
   </si>
   <si>
     <t>edwin camacho</t>
-  </si>
-  <si>
-    <t>320 2588237</t>
   </si>
 </sst>
 </file>
@@ -527,7 +521,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -576,10 +570,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" t="s">
         <v>38</v>
+      </c>
+      <c r="B2">
+        <v>3104819492</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -611,10 +605,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="B3">
+        <v>3104819492</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -646,10 +640,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="B4">
+        <v>3104819492</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -681,10 +675,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>3104819492</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -716,10 +710,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" t="s">
-        <v>44</v>
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>3104819492</v>
       </c>
     </row>
   </sheetData>

--- a/agenciasdeviajebarranquilla.xlsx
+++ b/agenciasdeviajebarranquilla.xlsx
@@ -199,11 +199,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,20 +522,20 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
-    <col min="2" max="2" width="40.7109375" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -572,7 +573,7 @@
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>3104819492</v>
       </c>
       <c r="C2" t="s">
@@ -607,7 +608,7 @@
       <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>3104819492</v>
       </c>
       <c r="C3" t="s">
@@ -642,7 +643,7 @@
       <c r="A4" t="s">
         <v>40</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>3104819492</v>
       </c>
       <c r="C4" t="s">
@@ -677,7 +678,7 @@
       <c r="A5" t="s">
         <v>41</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>3104819492</v>
       </c>
       <c r="C5" t="s">
@@ -712,7 +713,7 @@
       <c r="A6" t="s">
         <v>42</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>3104819492</v>
       </c>
     </row>

--- a/agenciasdeviajebarranquilla.xlsx
+++ b/agenciasdeviajebarranquilla.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Nombre</t>
   </si>
@@ -144,19 +144,10 @@
     <t>-74.816908</t>
   </si>
   <si>
-    <t>Alejandro silgado</t>
-  </si>
-  <si>
-    <t>pedro jose</t>
-  </si>
-  <si>
-    <t>daniel giraldo</t>
-  </si>
-  <si>
-    <t>ricardo silgado</t>
-  </si>
-  <si>
     <t>edwin camacho</t>
+  </si>
+  <si>
+    <t>300 6120261</t>
   </si>
 </sst>
 </file>
@@ -522,7 +513,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="B6" sqref="B4:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,8 +564,8 @@
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2">
-        <v>3104819492</v>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -606,10 +597,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="B3" s="2">
-        <v>3104819492</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -641,10 +632,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3104819492</v>
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -676,10 +667,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3104819492</v>
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -711,10 +702,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3104819492</v>
+        <v>38</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/agenciasdeviajebarranquilla.xlsx
+++ b/agenciasdeviajebarranquilla.xlsx
@@ -147,7 +147,7 @@
     <t>edwin camacho</t>
   </si>
   <si>
-    <t>300 6120261</t>
+    <t>3138539155</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B4:B6"/>
+      <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/agenciasdeviajebarranquilla.xlsx
+++ b/agenciasdeviajebarranquilla.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>Nombre</t>
   </si>
@@ -147,7 +147,7 @@
     <t>edwin camacho</t>
   </si>
   <si>
-    <t>3138539155</t>
+    <t>3156072530</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,8 +564,8 @@
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
+      <c r="B2" s="2">
+        <v>3156072530</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>

--- a/agenciasdeviajebarranquilla.xlsx
+++ b/agenciasdeviajebarranquilla.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Nombre</t>
   </si>
@@ -147,7 +147,7 @@
     <t>edwin camacho</t>
   </si>
   <si>
-    <t>3156072530</t>
+    <t>3104819492</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,8 +564,8 @@
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="2">
-        <v>3156072530</v>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>

--- a/agenciasdeviajebarranquilla.xlsx
+++ b/agenciasdeviajebarranquilla.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Nombre</t>
   </si>
@@ -144,10 +144,22 @@
     <t>-74.816908</t>
   </si>
   <si>
-    <t>edwin camacho</t>
-  </si>
-  <si>
     <t>3104819492</t>
+  </si>
+  <si>
+    <t>carlos</t>
+  </si>
+  <si>
+    <t>juan</t>
+  </si>
+  <si>
+    <t>luis</t>
+  </si>
+  <si>
+    <t>marco</t>
+  </si>
+  <si>
+    <t>daniel</t>
   </si>
 </sst>
 </file>
@@ -513,7 +525,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -562,10 +574,10 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -597,10 +609,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -632,10 +644,10 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
@@ -667,10 +679,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="C5" t="s">
         <v>33</v>
@@ -702,10 +714,10 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
